--- a/Test_Case_Template.xlsx
+++ b/Test_Case_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice.garvie\Desktop\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A675659-0F35-4559-AB55-43F39BB02647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7C685A-1076-4AF2-904D-62456CBC35AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FC62DE19-CC30-464A-8DF5-7BBFDC3A72DD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Test Case 1</t>
   </si>
@@ -127,7 +127,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Integration</t>
+    <t>Flow Name</t>
+  </si>
+  <si>
+    <t>Smoke OR Integration</t>
   </si>
 </sst>
 </file>
@@ -190,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -357,11 +360,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -402,12 +431,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -420,9 +443,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -435,32 +455,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,7 +884,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F7"/>
+      <selection activeCell="C8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,14 +910,14 @@
     </row>
     <row r="2" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="37"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -884,10 +925,10 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -897,19 +938,19 @@
     </row>
     <row r="4" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -918,17 +959,17 @@
     </row>
     <row r="5" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="32"/>
+      <c r="E5" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="37"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -937,13 +978,13 @@
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="24"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -952,13 +993,13 @@
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="24"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -967,13 +1008,13 @@
     </row>
     <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="24"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -982,13 +1023,13 @@
     </row>
     <row r="9" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="24"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -997,13 +1038,15 @@
     </row>
     <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="24"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1012,15 +1055,15 @@
     </row>
     <row r="11" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="32"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1029,19 +1072,19 @@
     </row>
     <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1231,7 +1274,6 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="E4:F4"/>
@@ -1241,6 +1283,7 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
